--- a/03.Based_list.xlsx
+++ b/03.Based_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendeas/Desktop/CypERN/02.Fuel Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\BPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7B6D0-CE77-9945-908B-3B88DE804FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AD78D-6AD1-4658-8144-EA901638AD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="691">
   <si>
     <t>Name</t>
   </si>
@@ -2462,15 +2462,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2481,18 +2483,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
-      <c r="C2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>63</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>64</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>67</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>68</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3625,7 +3624,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>73</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>74</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>75</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>76</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>77</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>78</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>80</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>81</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>82</v>
       </c>
@@ -3834,7 +3833,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>84</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>84</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>86</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3955,7 +3954,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>90</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>91</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>93</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>94</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>82</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>95</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>96</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>83</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>97</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>98</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>100</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>102</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>82</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>103</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>104</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>105</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>106</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>107</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>108</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>109</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>110</v>
       </c>
@@ -4373,7 +4372,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>111</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>112</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>113</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>114</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>115</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>116</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>117</v>
       </c>
@@ -4461,7 +4460,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>118</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>119</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>120</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>120</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>121</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>122</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>123</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>124</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>3</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>125</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>126</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>127</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>128</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>129</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>130</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -4692,7 +4691,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>131</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>84</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>133</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>134</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>135</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>136</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>137</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>138</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>139</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>140</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>3</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>10</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>141</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>57</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>143</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>82</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>144</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>145</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>82</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>146</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>147</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>148</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>82</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>149</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>82</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>150</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>3</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>82</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>151</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>152</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>82</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>154</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>155</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>156</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>157</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>58</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>59</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>158</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>159</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>160</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>161</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>162</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>163</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>164</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>165</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>166</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>167</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>168</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>169</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>170</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>171</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>172</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>173</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>174</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>175</v>
       </c>
@@ -5682,7 +5681,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>176</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>177</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>178</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>179</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>180</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>181</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>182</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>183</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>184</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>185</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>186</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>187</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>60</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>188</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>189</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>190</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>84</v>
       </c>

--- a/03.Based_list.xlsx
+++ b/03.Based_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andriani\Desktop\andriani\UCY\Work_CypErc\BPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendeas/Desktop/CypERN/02.Fuel Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AD78D-6AD1-4658-8144-EA901638AD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7B6D0-CE77-9945-908B-3B88DE804FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="691">
   <si>
     <t>Name</t>
   </si>
@@ -2462,17 +2462,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,15 +2481,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>63</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>64</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>67</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>68</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>73</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>74</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>75</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>76</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>77</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>78</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>80</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>81</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>82</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>84</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>84</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>86</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>90</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>91</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>93</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>94</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>82</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>95</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>96</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>83</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>97</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>98</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>100</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>102</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>82</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>103</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>104</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>105</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>106</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>107</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>108</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>109</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>110</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>111</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>112</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>113</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>114</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>115</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>116</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>117</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>118</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>119</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>120</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>120</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>121</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>122</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>123</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>124</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>3</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>125</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>126</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>127</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>128</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>129</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -4669,7 +4670,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>130</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>131</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>84</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>133</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>134</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -4790,7 +4791,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>135</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>136</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>137</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>138</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>139</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>140</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>3</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>10</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>141</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>57</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>143</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>82</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>144</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>145</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>82</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>146</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>147</v>
       </c>
@@ -5241,7 +5242,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>148</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>82</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>149</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>82</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>150</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>3</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>82</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>151</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>152</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>3</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>82</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>154</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>155</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>156</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>157</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>58</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>59</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>158</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>159</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>160</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>161</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>162</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>163</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>164</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>165</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>166</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>167</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>168</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>169</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>170</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>171</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>172</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>173</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>174</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>175</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>176</v>
       </c>
@@ -5692,7 +5693,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>177</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>178</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>179</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>180</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>181</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>182</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>183</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>184</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>185</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>186</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>187</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>60</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>188</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>189</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>190</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>84</v>
       </c>
